--- a/Other/BOM.xlsx
+++ b/Other/BOM.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c1c2057027910c48/Documents/Electronics/Power Supply/Instructables/Design/Other/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_31a1\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="225" documentId="8_{B4D601AA-BA65-D044-9432-DCE81BBEAFC3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{9780C97C-4A75-BE4A-904B-E92DDE1BF2EF}"/>
+  <xr:revisionPtr revIDLastSave="322" documentId="8_{B4D601AA-BA65-D044-9432-DCE81BBEAFC3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{C1EE2CA1-B2F8-294F-9127-2ABE92CE5247}"/>
   <bookViews>
-    <workbookView xWindow="23260" yWindow="8240" windowWidth="27560" windowHeight="19000" xr2:uid="{5421FC37-CF6E-8447-9871-269E51B6EE49}"/>
+    <workbookView xWindow="62640" yWindow="15285" windowWidth="25605" windowHeight="15540" xr2:uid="{5421FC37-CF6E-8447-9871-269E51B6EE49}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="297">
   <si>
     <t>Name</t>
   </si>
@@ -183,12 +184,6 @@
     <t>Linear Technology</t>
   </si>
   <si>
-    <t>LT3092ETS8#TRPBF</t>
-  </si>
-  <si>
-    <t>LT3092ETS8#TRPBFCT-ND</t>
-  </si>
-  <si>
     <t>Step Down Reg LTC1624</t>
   </si>
   <si>
@@ -240,18 +235,12 @@
     <t>296-47777-1-ND</t>
   </si>
   <si>
-    <t>Linear voltage regulator 5V</t>
-  </si>
-  <si>
     <t>REGULATOR</t>
   </si>
   <si>
     <t>TO-220</t>
   </si>
   <si>
-    <t>UA7805CKCT</t>
-  </si>
-  <si>
     <t>470pF</t>
   </si>
   <si>
@@ -291,12 +280,6 @@
     <t>GCM21BR71H105KA03L</t>
   </si>
   <si>
-    <t>0.33uF</t>
-  </si>
-  <si>
-    <t>MC0805B334K500CT</t>
-  </si>
-  <si>
     <t>6K8</t>
   </si>
   <si>
@@ -876,15 +859,9 @@
     <t>R12, R13, R16, R17, R23, R24, R25</t>
   </si>
   <si>
-    <t>C27</t>
-  </si>
-  <si>
     <t>U7</t>
   </si>
   <si>
-    <t>C2, C7, C28</t>
-  </si>
-  <si>
     <t>Consumable</t>
   </si>
   <si>
@@ -922,13 +899,37 @@
   </si>
   <si>
     <t>Heatshrink tubing should be considered for Power Stage connections; also wire connector blocks for ease of maintenance.</t>
+  </si>
+  <si>
+    <t>DC-DC Linear Converter 5V 1A</t>
+  </si>
+  <si>
+    <t>Traco Power</t>
+  </si>
+  <si>
+    <t>TSRN 1-2450</t>
+  </si>
+  <si>
+    <t>TSR 1-2450 also acceptable</t>
+  </si>
+  <si>
+    <t>SIP/TO-220</t>
+  </si>
+  <si>
+    <t>LT3092EST#TRPBFCT-ND</t>
+  </si>
+  <si>
+    <t>LT3092EST#TRPBF</t>
+  </si>
+  <si>
+    <t>C2, C7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -964,8 +965,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -975,6 +982,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,7 +1011,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1002,13 +1021,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1324,30 +1345,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E49F6EE-2D96-D746-BF2F-06D94A605333}">
-  <dimension ref="A1:O88"/>
+  <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="18.83203125" customWidth="1"/>
+    <col min="1" max="1" width="25.875" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="22.125" customWidth="1"/>
+    <col min="4" max="4" width="19.375" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="9" max="9" width="17.625" customWidth="1"/>
+    <col min="10" max="10" width="18.875" customWidth="1"/>
     <col min="11" max="11" width="17.5" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.375" customWidth="1"/>
+    <col min="13" max="13" width="14.625" customWidth="1"/>
     <col min="14" max="14" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1355,16 +1376,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -1394,7 +1415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1402,10 +1423,10 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -1419,14 +1440,14 @@
       <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="11">
         <v>2320839</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1434,7 +1455,7 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1451,14 +1472,14 @@
       <c r="I3" t="s">
         <v>20</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="11">
         <v>8823391</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1466,7 +1487,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -1483,14 +1504,14 @@
       <c r="I4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="11" t="s">
         <v>26</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1498,7 +1519,7 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1515,14 +1536,14 @@
       <c r="I5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="11" t="s">
         <v>30</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1530,7 +1551,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1547,14 +1568,14 @@
       <c r="I6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="11" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1562,7 +1583,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1579,14 +1600,14 @@
       <c r="I7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="11" t="s">
         <v>36</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1594,7 +1615,7 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1611,14 +1632,14 @@
       <c r="I8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="11" t="s">
         <v>39</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1626,7 +1647,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1643,14 +1664,14 @@
       <c r="I9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="11" t="s">
         <v>42</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1658,7 +1679,7 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -1675,14 +1696,14 @@
       <c r="I10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="11" t="s">
         <v>45</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -1690,7 +1711,7 @@
         <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1705,24 +1726,24 @@
         <v>49</v>
       </c>
       <c r="I11" t="s">
+        <v>295</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>50</v>
-      </c>
-      <c r="K11" t="s">
-        <v>51</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>52</v>
       </c>
       <c r="B12" t="s">
         <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1731,30 +1752,30 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
         <v>49</v>
       </c>
       <c r="I12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>54</v>
-      </c>
-      <c r="K12" t="s">
-        <v>55</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>56</v>
       </c>
       <c r="B13" t="s">
         <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1763,30 +1784,30 @@
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
         <v>49</v>
       </c>
       <c r="I13" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>58</v>
-      </c>
-      <c r="K13" t="s">
-        <v>59</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>60</v>
       </c>
       <c r="B14" t="s">
         <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1795,30 +1816,30 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H14" t="s">
         <v>49</v>
       </c>
       <c r="I14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>62</v>
-      </c>
-      <c r="K14" t="s">
-        <v>63</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>64</v>
       </c>
       <c r="B15" t="s">
         <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1827,62 +1848,65 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" t="s">
         <v>65</v>
       </c>
-      <c r="H15" t="s">
+      <c r="K15" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="I15" t="s">
+      <c r="N15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>289</v>
+      </c>
+      <c r="B16" t="s">
         <v>67</v>
       </c>
-      <c r="K15" t="s">
-        <v>68</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="C16" t="s">
+        <v>275</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>293</v>
+      </c>
+      <c r="H16" t="s">
+        <v>290</v>
+      </c>
+      <c r="I16" t="s">
+        <v>291</v>
+      </c>
+      <c r="J16" s="11">
+        <v>2280247</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>69</v>
-      </c>
-      <c r="B16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" t="s">
-        <v>282</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" t="s">
-        <v>72</v>
-      </c>
-      <c r="J16">
-        <v>2323602</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>73</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1894,27 +1918,27 @@
         <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I17" t="s">
-        <v>75</v>
-      </c>
-      <c r="J17">
+        <v>71</v>
+      </c>
+      <c r="J17" s="11">
         <v>2896583</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1926,27 +1950,27 @@
         <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I18" t="s">
-        <v>78</v>
-      </c>
-      <c r="J18">
+        <v>74</v>
+      </c>
+      <c r="J18" s="11">
         <v>2905173</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1961,26 +1985,26 @@
         <v>14</v>
       </c>
       <c r="I19" t="s">
-        <v>80</v>
-      </c>
-      <c r="J19">
+        <v>76</v>
+      </c>
+      <c r="J19" s="11">
         <v>2320837</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="D20" s="11"/>
+      <c r="C20" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D20" s="10"/>
       <c r="E20">
         <v>13</v>
       </c>
@@ -1991,27 +2015,27 @@
         <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s">
-        <v>83</v>
-      </c>
-      <c r="J20">
+        <v>79</v>
+      </c>
+      <c r="J20" s="11">
         <v>2611943</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -2023,33 +2047,33 @@
         <v>13</v>
       </c>
       <c r="H21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" t="s">
+        <v>81</v>
+      </c>
+      <c r="J21" s="11">
+        <v>2688485</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>82</v>
       </c>
-      <c r="I21" t="s">
-        <v>85</v>
-      </c>
-      <c r="J21">
-        <v>2688485</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>86</v>
-      </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>13</v>
@@ -2058,91 +2082,91 @@
         <v>14</v>
       </c>
       <c r="I22" t="s">
-        <v>87</v>
-      </c>
-      <c r="J22">
-        <v>2320844</v>
+        <v>84</v>
+      </c>
+      <c r="J22" s="11">
+        <v>2447711</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="I23" t="s">
-        <v>90</v>
-      </c>
-      <c r="J23">
-        <v>2447711</v>
+        <v>87</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="I24" t="s">
-        <v>93</v>
-      </c>
-      <c r="K24" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="J24" s="11">
+        <v>2447587</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>10</v>
@@ -2151,30 +2175,30 @@
         <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="I25" t="s">
-        <v>96</v>
-      </c>
-      <c r="J25">
-        <v>2447587</v>
+        <v>92</v>
+      </c>
+      <c r="J25" s="11">
+        <v>2616759</v>
       </c>
       <c r="N25" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>10</v>
@@ -2183,30 +2207,30 @@
         <v>13</v>
       </c>
       <c r="H26" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="I26" t="s">
-        <v>98</v>
-      </c>
-      <c r="J26">
-        <v>2616759</v>
+        <v>94</v>
+      </c>
+      <c r="J26" s="11">
+        <v>2447551</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>99</v>
+    <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>200</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>10</v>
@@ -2218,24 +2242,24 @@
         <v>14</v>
       </c>
       <c r="I27" t="s">
-        <v>100</v>
-      </c>
-      <c r="J27">
-        <v>2447551</v>
+        <v>95</v>
+      </c>
+      <c r="J27" s="11">
+        <v>2447602</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="9">
-        <v>200</v>
+    <row r="28" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>96</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2250,24 +2274,24 @@
         <v>14</v>
       </c>
       <c r="I28" t="s">
-        <v>101</v>
-      </c>
-      <c r="J28">
-        <v>2447602</v>
+        <v>97</v>
+      </c>
+      <c r="J28" s="11">
+        <v>2447665</v>
       </c>
       <c r="N28" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2279,89 +2303,89 @@
         <v>13</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="I29" t="s">
-        <v>103</v>
-      </c>
-      <c r="J29">
-        <v>2447665</v>
+        <v>100</v>
+      </c>
+      <c r="J29" s="11">
+        <v>2303742</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>263</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
+        <v>281</v>
       </c>
       <c r="F30">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H30" t="s">
-        <v>105</v>
-      </c>
-      <c r="I30" t="s">
-        <v>106</v>
-      </c>
-      <c r="J30">
-        <v>2303742</v>
-      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="L30" s="5"/>
       <c r="N30" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" t="s">
-        <v>289</v>
+        <v>83</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31">
+        <v>7</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="L31" s="5"/>
+      <c r="H31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>104</v>
+      </c>
+      <c r="J31" s="11">
+        <v>2694096</v>
+      </c>
       <c r="N31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="D32" s="11"/>
+        <v>83</v>
+      </c>
+      <c r="C32" t="s">
+        <v>263</v>
+      </c>
       <c r="E32">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>10</v>
@@ -2370,27 +2394,27 @@
         <v>13</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="I32" t="s">
-        <v>110</v>
-      </c>
-      <c r="J32">
-        <v>2694096</v>
+        <v>106</v>
+      </c>
+      <c r="J32" s="11">
+        <v>1469911</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>111</v>
+    <row r="33" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>100</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2402,120 +2426,120 @@
         <v>13</v>
       </c>
       <c r="H33" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="I33" t="s">
-        <v>112</v>
-      </c>
-      <c r="J33">
-        <v>1469911</v>
+        <v>107</v>
+      </c>
+      <c r="J33" s="11">
+        <v>2447552</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="9">
-        <v>100</v>
+    <row r="34" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>108</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>270</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
+        <v>281</v>
       </c>
       <c r="F34">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H34" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" t="s">
-        <v>113</v>
-      </c>
-      <c r="J34">
-        <v>2447552</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="N34" t="s">
+        <v>9</v>
+      </c>
+      <c r="O34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>289</v>
+        <v>260</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="N35" t="s">
-        <v>9</v>
-      </c>
-      <c r="O35" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>116</v>
+      <c r="H35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I35" t="s">
+        <v>111</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>220</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C36" t="s">
         <v>266</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H36" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="I36" t="s">
-        <v>117</v>
-      </c>
-      <c r="K36" t="s">
-        <v>118</v>
+        <v>113</v>
+      </c>
+      <c r="J36" s="11">
+        <v>2447606</v>
       </c>
       <c r="N36" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="9">
-        <v>220</v>
+    <row r="37" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>114</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>10</v>
@@ -2527,88 +2551,88 @@
         <v>14</v>
       </c>
       <c r="I37" t="s">
-        <v>119</v>
-      </c>
-      <c r="J37">
-        <v>2447606</v>
+        <v>115</v>
+      </c>
+      <c r="J37" s="11">
+        <v>2447623</v>
       </c>
       <c r="N37" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="C38" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="E38">
         <v>2</v>
       </c>
       <c r="F38">
-        <v>10</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>118</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="I38" t="s">
+        <v>120</v>
+      </c>
+      <c r="J38" s="11">
+        <v>9557377</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>121</v>
       </c>
-      <c r="J38">
-        <v>2447623</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
         <v>122</v>
       </c>
-      <c r="B39" t="s">
-        <v>123</v>
-      </c>
       <c r="C39" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39">
         <v>5</v>
       </c>
       <c r="G39" t="s">
+        <v>68</v>
+      </c>
+      <c r="H39" t="s">
+        <v>123</v>
+      </c>
+      <c r="I39" t="s">
         <v>124</v>
       </c>
-      <c r="H39" t="s">
+      <c r="J39" s="11">
+        <v>1704017</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>125</v>
       </c>
-      <c r="I39" t="s">
+      <c r="B40" t="s">
         <v>126</v>
       </c>
-      <c r="J39">
-        <v>9557377</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>127</v>
-      </c>
-      <c r="B40" t="s">
-        <v>128</v>
-      </c>
       <c r="C40" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2617,254 +2641,254 @@
         <v>5</v>
       </c>
       <c r="G40" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="H40" t="s">
+        <v>128</v>
+      </c>
+      <c r="I40" t="s">
         <v>129</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" s="11">
+        <v>2453753</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>130</v>
       </c>
-      <c r="J40">
-        <v>1704017</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
         <v>131</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
+        <v>247</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
         <v>132</v>
       </c>
-      <c r="C41" t="s">
-        <v>254</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
+      <c r="H41" t="s">
+        <v>133</v>
+      </c>
+      <c r="I41" t="s">
+        <v>134</v>
+      </c>
+      <c r="J41" s="11">
+        <v>2434072</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" t="s">
+        <v>268</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
         <v>5</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G42" t="s">
+        <v>127</v>
+      </c>
+      <c r="H42" t="s">
+        <v>128</v>
+      </c>
+      <c r="I42" t="s">
+        <v>136</v>
+      </c>
+      <c r="J42" s="11">
+        <v>1700648</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>262</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>138</v>
+      </c>
+      <c r="J43" s="11">
+        <v>9406352</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44" t="s">
+        <v>235</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>141</v>
+      </c>
+      <c r="H44" t="s">
         <v>133</v>
       </c>
-      <c r="H41" t="s">
-        <v>134</v>
-      </c>
-      <c r="I41" t="s">
-        <v>135</v>
-      </c>
-      <c r="J41">
-        <v>2453753</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>136</v>
-      </c>
-      <c r="B42" t="s">
-        <v>137</v>
-      </c>
-      <c r="C42" t="s">
-        <v>253</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" t="s">
-        <v>138</v>
-      </c>
-      <c r="H42" t="s">
-        <v>139</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="I44" t="s">
+        <v>142</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" t="s">
         <v>140</v>
       </c>
-      <c r="J42">
-        <v>2434072</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="C45" t="s">
+        <v>235</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
         <v>141</v>
       </c>
-      <c r="B43" t="s">
-        <v>132</v>
-      </c>
-      <c r="C43" t="s">
-        <v>274</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>5</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="H45" t="s">
         <v>133</v>
       </c>
-      <c r="H43" t="s">
-        <v>134</v>
-      </c>
-      <c r="I43" t="s">
-        <v>142</v>
-      </c>
-      <c r="J43">
-        <v>1700648</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>143</v>
-      </c>
-      <c r="B44" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" t="s">
-        <v>268</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>10</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" t="s">
-        <v>14</v>
-      </c>
-      <c r="I44" t="s">
-        <v>144</v>
-      </c>
-      <c r="J44">
-        <v>9406352</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="I45" t="s">
         <v>145</v>
       </c>
-      <c r="B45" t="s">
+      <c r="K45" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="C45" t="s">
-        <v>241</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="N45" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>147</v>
       </c>
-      <c r="H45" t="s">
-        <v>139</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="B46" t="s">
         <v>148</v>
       </c>
-      <c r="K45" t="s">
+      <c r="C46" t="s">
+        <v>235</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" t="s">
+        <v>133</v>
+      </c>
+      <c r="I46" t="s">
         <v>149</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="K46" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B46" t="s">
-        <v>146</v>
-      </c>
-      <c r="C46" t="s">
-        <v>241</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46" t="s">
-        <v>147</v>
-      </c>
-      <c r="H46" t="s">
-        <v>139</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="N46" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>151</v>
       </c>
-      <c r="K46" t="s">
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" t="s">
+        <v>235</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>141</v>
+      </c>
+      <c r="H47" t="s">
         <v>152</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="I47" t="s">
         <v>153</v>
       </c>
-      <c r="B47" t="s">
+      <c r="J47" s="11">
+        <v>1815818</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>154</v>
-      </c>
-      <c r="C47" t="s">
-        <v>241</v>
-      </c>
-      <c r="E47">
-        <v>2</v>
-      </c>
-      <c r="F47">
-        <v>2</v>
-      </c>
-      <c r="G47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H47" t="s">
-        <v>139</v>
-      </c>
-      <c r="I47" t="s">
-        <v>155</v>
-      </c>
-      <c r="K47" t="s">
-        <v>156</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>157</v>
       </c>
       <c r="B48" t="s">
         <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2873,254 +2897,254 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H48" t="s">
+        <v>152</v>
+      </c>
+      <c r="I48" t="s">
+        <v>155</v>
+      </c>
+      <c r="J48" s="11">
+        <v>1815819</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>156</v>
+      </c>
+      <c r="B49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" t="s">
+        <v>282</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" t="s">
+        <v>157</v>
+      </c>
+      <c r="I49" t="s">
         <v>158</v>
       </c>
-      <c r="I48" t="s">
+      <c r="L49" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="J48">
-        <v>1815818</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="N49" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>160</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" t="s">
+        <v>235</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
+        <v>141</v>
+      </c>
+      <c r="H50" t="s">
+        <v>162</v>
+      </c>
+      <c r="I50" t="s">
+        <v>163</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>165</v>
+      </c>
+      <c r="B51" t="s">
+        <v>166</v>
+      </c>
+      <c r="D51" t="s">
+        <v>235</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>141</v>
+      </c>
+      <c r="H51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>167</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>170</v>
+      </c>
+      <c r="B52" t="s">
         <v>22</v>
       </c>
-      <c r="C49" t="s">
-        <v>241</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49" t="s">
-        <v>147</v>
-      </c>
-      <c r="H49" t="s">
-        <v>158</v>
-      </c>
-      <c r="I49" t="s">
-        <v>161</v>
-      </c>
-      <c r="J49">
-        <v>1815819</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>162</v>
-      </c>
-      <c r="B50" t="s">
-        <v>89</v>
-      </c>
-      <c r="C50" t="s">
-        <v>290</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50" t="s">
-        <v>23</v>
-      </c>
-      <c r="H50" t="s">
-        <v>163</v>
-      </c>
-      <c r="I50" t="s">
-        <v>164</v>
-      </c>
-      <c r="L50" t="s">
-        <v>165</v>
-      </c>
-      <c r="N50" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>166</v>
-      </c>
-      <c r="B51" t="s">
-        <v>167</v>
-      </c>
-      <c r="C51" t="s">
-        <v>241</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51" t="s">
-        <v>147</v>
-      </c>
-      <c r="H51" t="s">
-        <v>168</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="C52" t="s">
+        <v>238</v>
+      </c>
+      <c r="D52" t="s">
+        <v>283</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="H52" t="s">
         <v>169</v>
       </c>
-      <c r="K51" t="s">
-        <v>170</v>
-      </c>
-      <c r="N51" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="I52">
+        <v>1729128</v>
+      </c>
+      <c r="L52" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="B52" t="s">
+      <c r="N52" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>172</v>
       </c>
-      <c r="D52" t="s">
-        <v>241</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52" t="s">
-        <v>147</v>
-      </c>
-      <c r="H52" t="s">
-        <v>14</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="B53" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" t="s">
+        <v>246</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
+        <v>28</v>
+      </c>
+      <c r="H53" t="s">
         <v>173</v>
       </c>
-      <c r="L52" t="s">
+      <c r="I53" t="s">
         <v>174</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="L53" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>176</v>
       </c>
-      <c r="B53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C53" t="s">
-        <v>244</v>
-      </c>
-      <c r="D53" t="s">
-        <v>291</v>
-      </c>
-      <c r="E53">
-        <v>4</v>
-      </c>
-      <c r="F53">
-        <v>4</v>
-      </c>
-      <c r="H53" t="s">
-        <v>175</v>
-      </c>
-      <c r="I53">
-        <v>1729128</v>
-      </c>
-      <c r="L53" t="s">
-        <v>177</v>
-      </c>
-      <c r="N53" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>178</v>
-      </c>
       <c r="B54" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54" t="s">
         <v>28</v>
       </c>
       <c r="H54" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>177</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>179</v>
       </c>
-      <c r="I54" t="s">
-        <v>180</v>
-      </c>
-      <c r="L54" t="s">
-        <v>181</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>182</v>
-      </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="D55" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G55" t="s">
         <v>28</v>
       </c>
       <c r="H55" t="s">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="I55" t="s">
+        <v>181</v>
+      </c>
+      <c r="L55" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>183</v>
       </c>
-      <c r="L55" t="s">
+      <c r="B56" t="s">
         <v>184</v>
       </c>
-      <c r="N55" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>185</v>
-      </c>
-      <c r="B56" t="s">
-        <v>89</v>
-      </c>
       <c r="D56" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3129,62 +3153,62 @@
         <v>10</v>
       </c>
       <c r="G56" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H56" t="s">
+        <v>185</v>
+      </c>
+      <c r="I56" t="s">
         <v>186</v>
       </c>
-      <c r="I56" t="s">
+      <c r="L56" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="L56" t="s">
+      <c r="N56" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>188</v>
       </c>
-      <c r="N56" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="B57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" t="s">
+        <v>235</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>141</v>
+      </c>
+      <c r="H57" t="s">
         <v>189</v>
       </c>
-      <c r="B57" t="s">
+      <c r="I57" t="s">
         <v>190</v>
       </c>
-      <c r="D57" t="s">
-        <v>241</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57">
-        <v>10</v>
-      </c>
-      <c r="G57" t="s">
-        <v>23</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="L57" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="I57" t="s">
+      <c r="N57" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>192</v>
-      </c>
-      <c r="L57" t="s">
-        <v>193</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>194</v>
       </c>
       <c r="B58" t="s">
         <v>22</v>
       </c>
       <c r="D58" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3193,30 +3217,30 @@
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>147</v>
+        <v>23</v>
       </c>
       <c r="H58" t="s">
+        <v>193</v>
+      </c>
+      <c r="I58" t="s">
+        <v>194</v>
+      </c>
+      <c r="L58" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="I58" t="s">
+      <c r="N58" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>196</v>
       </c>
-      <c r="L58" t="s">
+      <c r="B59" t="s">
         <v>197</v>
       </c>
-      <c r="N58" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>198</v>
-      </c>
-      <c r="B59" t="s">
-        <v>22</v>
-      </c>
-      <c r="D59" t="s">
-        <v>241</v>
+      <c r="C59" t="s">
+        <v>276</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3228,334 +3252,302 @@
         <v>23</v>
       </c>
       <c r="H59" t="s">
+        <v>198</v>
+      </c>
+      <c r="I59" t="s">
         <v>199</v>
       </c>
-      <c r="I59" t="s">
+      <c r="L59" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="L59" t="s">
+      <c r="N59" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>201</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>202</v>
-      </c>
       <c r="B60" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C60" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G60" t="s">
         <v>23</v>
       </c>
       <c r="H60" t="s">
+        <v>202</v>
+      </c>
+      <c r="I60" t="s">
+        <v>203</v>
+      </c>
+      <c r="L60" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="I60" t="s">
+      <c r="N60" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>205</v>
       </c>
-      <c r="L60" t="s">
-        <v>206</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>207</v>
-      </c>
       <c r="B61" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C61" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E61">
         <v>3</v>
       </c>
       <c r="F61">
+        <v>15</v>
+      </c>
+      <c r="G61" t="s">
+        <v>206</v>
+      </c>
+      <c r="H61" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>207</v>
+      </c>
+      <c r="J61" s="11">
+        <v>520160</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>208</v>
+      </c>
+      <c r="B62" t="s">
+        <v>197</v>
+      </c>
+      <c r="C62" t="s">
+        <v>259</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62" t="s">
+        <v>68</v>
+      </c>
+      <c r="H62" t="s">
+        <v>209</v>
+      </c>
+      <c r="I62" t="s">
+        <v>210</v>
+      </c>
+      <c r="L62" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O62" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>277</v>
+      </c>
+      <c r="B63" t="s">
+        <v>197</v>
+      </c>
+      <c r="D63" t="s">
+        <v>246</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" t="s">
+        <v>213</v>
+      </c>
+      <c r="I63" t="s">
+        <v>214</v>
+      </c>
+      <c r="L63" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="N63" s="3"/>
+      <c r="O63" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>216</v>
+      </c>
+      <c r="B64" t="s">
+        <v>217</v>
+      </c>
+      <c r="C64" t="s">
+        <v>235</v>
+      </c>
+      <c r="E64">
+        <v>8</v>
+      </c>
+      <c r="F64">
         <v>10</v>
-      </c>
-      <c r="G61" t="s">
-        <v>23</v>
-      </c>
-      <c r="H61" t="s">
-        <v>208</v>
-      </c>
-      <c r="I61" t="s">
-        <v>209</v>
-      </c>
-      <c r="L61" t="s">
-        <v>210</v>
-      </c>
-      <c r="N61" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>211</v>
-      </c>
-      <c r="B62" t="s">
-        <v>203</v>
-      </c>
-      <c r="C62" t="s">
-        <v>284</v>
-      </c>
-      <c r="E62">
-        <v>3</v>
-      </c>
-      <c r="F62">
-        <v>15</v>
-      </c>
-      <c r="G62" t="s">
-        <v>212</v>
-      </c>
-      <c r="H62" t="s">
-        <v>14</v>
-      </c>
-      <c r="I62" t="s">
-        <v>213</v>
-      </c>
-      <c r="J62">
-        <v>520160</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>214</v>
-      </c>
-      <c r="B63" t="s">
-        <v>203</v>
-      </c>
-      <c r="C63" t="s">
-        <v>265</v>
-      </c>
-      <c r="E63">
-        <v>2</v>
-      </c>
-      <c r="F63">
-        <v>2</v>
-      </c>
-      <c r="G63" t="s">
-        <v>71</v>
-      </c>
-      <c r="H63" t="s">
-        <v>215</v>
-      </c>
-      <c r="I63" t="s">
-        <v>216</v>
-      </c>
-      <c r="L63" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="N63" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O63" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>285</v>
-      </c>
-      <c r="B64" t="s">
-        <v>203</v>
-      </c>
-      <c r="D64" t="s">
-        <v>252</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
       </c>
       <c r="G64" t="s">
         <v>23</v>
       </c>
       <c r="H64" t="s">
+        <v>218</v>
+      </c>
+      <c r="I64" t="s">
         <v>219</v>
       </c>
-      <c r="I64" t="s">
+      <c r="L64" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="L64" t="s">
+      <c r="N64" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>221</v>
       </c>
-      <c r="N64" s="3"/>
-      <c r="O64" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>222</v>
-      </c>
       <c r="B65" t="s">
-        <v>223</v>
-      </c>
-      <c r="C65" t="s">
-        <v>241</v>
+        <v>217</v>
+      </c>
+      <c r="D65" t="s">
+        <v>235</v>
       </c>
       <c r="E65">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F65">
         <v>10</v>
       </c>
       <c r="G65" t="s">
+        <v>206</v>
+      </c>
+      <c r="H65" t="s">
+        <v>222</v>
+      </c>
+      <c r="I65" t="s">
+        <v>223</v>
+      </c>
+      <c r="L65" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>225</v>
+      </c>
+      <c r="B66" t="s">
+        <v>226</v>
+      </c>
+      <c r="C66" t="s">
+        <v>280</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+      <c r="G66" t="s">
+        <v>28</v>
+      </c>
+      <c r="H66" t="s">
+        <v>227</v>
+      </c>
+      <c r="I66" t="s">
+        <v>228</v>
+      </c>
+      <c r="K66" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>230</v>
+      </c>
+      <c r="B67" t="s">
+        <v>279</v>
+      </c>
+      <c r="C67" t="s">
+        <v>235</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="s">
         <v>23</v>
       </c>
-      <c r="H65" t="s">
-        <v>224</v>
-      </c>
-      <c r="I65" t="s">
-        <v>225</v>
-      </c>
-      <c r="L65" t="s">
-        <v>226</v>
-      </c>
-      <c r="N65" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>227</v>
-      </c>
-      <c r="B66" t="s">
-        <v>223</v>
-      </c>
-      <c r="D66" t="s">
-        <v>241</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66">
-        <v>10</v>
-      </c>
-      <c r="G66" t="s">
-        <v>212</v>
-      </c>
-      <c r="H66" t="s">
-        <v>228</v>
-      </c>
-      <c r="I66" t="s">
-        <v>229</v>
-      </c>
-      <c r="L66" t="s">
-        <v>230</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="H67" t="s">
         <v>231</v>
       </c>
-      <c r="B67" t="s">
+      <c r="I67" t="s">
         <v>232</v>
       </c>
-      <c r="C67" t="s">
+      <c r="M67" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O67" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="E67">
-        <v>3</v>
-      </c>
-      <c r="F67">
-        <v>3</v>
-      </c>
-      <c r="G67" t="s">
-        <v>28</v>
-      </c>
-      <c r="H67" t="s">
-        <v>233</v>
-      </c>
-      <c r="I67" t="s">
-        <v>234</v>
-      </c>
-      <c r="K67" t="s">
-        <v>235</v>
-      </c>
-      <c r="N67" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>236</v>
-      </c>
-      <c r="B68" t="s">
-        <v>287</v>
-      </c>
-      <c r="C68" t="s">
-        <v>241</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68" t="s">
-        <v>23</v>
-      </c>
-      <c r="H68" t="s">
-        <v>237</v>
-      </c>
-      <c r="I68" t="s">
-        <v>238</v>
-      </c>
-      <c r="M68" t="s">
-        <v>239</v>
-      </c>
-      <c r="N68" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O68" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A70" s="10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A71" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F82" s="3"/>
-    </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F86" s="3"/>
-    </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F88" s="8"/>
+    </row>
+    <row r="81" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F81" s="3"/>
+    </row>
+    <row r="85" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F85" s="3"/>
+    </row>
+    <row r="87" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F87" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3574,56 +3566,69 @@
     <hyperlink ref="N19" r:id="rId13" xr:uid="{58CDCA40-655C-8B4E-8EB6-CC8F149C603B}"/>
     <hyperlink ref="N20" r:id="rId14" xr:uid="{C3E83499-4306-CE45-8D4E-9F5CEC980A30}"/>
     <hyperlink ref="N21" r:id="rId15" xr:uid="{1E8B5ACD-F636-6B47-99B9-498F7BD5326F}"/>
-    <hyperlink ref="N22" r:id="rId16" xr:uid="{AB7A74D9-F209-FF46-8A52-F8A3B4867B0F}"/>
-    <hyperlink ref="N23" r:id="rId17" xr:uid="{E85B73F8-7891-7143-B969-0B79DF26D081}"/>
-    <hyperlink ref="N24" r:id="rId18" xr:uid="{44CDC6C0-EE6B-B347-8735-C63D2C24040D}"/>
-    <hyperlink ref="N25" r:id="rId19" xr:uid="{A596F81C-9A3A-F74B-AC01-E5A03CA4BCC4}"/>
-    <hyperlink ref="N26" r:id="rId20" xr:uid="{FDF2E6CC-FB30-8040-B34A-D885D59D1160}"/>
-    <hyperlink ref="N27" r:id="rId21" xr:uid="{87B4DA1D-2EA7-054C-8B19-C4BE6F9B10A0}"/>
-    <hyperlink ref="N28" r:id="rId22" xr:uid="{E655B469-D0C1-D849-9BD7-1AE114B2C741}"/>
-    <hyperlink ref="N29" r:id="rId23" xr:uid="{5F79F766-E9E0-664F-919F-643E6704EC01}"/>
-    <hyperlink ref="N30" r:id="rId24" xr:uid="{465E577B-0B06-AB4F-BB85-CA56352BBFDE}"/>
-    <hyperlink ref="N31" r:id="rId25" xr:uid="{C1E31111-A2B4-FF4A-A8E3-DEB4725DADBA}"/>
-    <hyperlink ref="N32" r:id="rId26" xr:uid="{9217608B-9107-7D40-8260-DAD414EA0D15}"/>
-    <hyperlink ref="N33" r:id="rId27" xr:uid="{EB2ED179-4C37-7F42-BFF2-858EB3A7F462}"/>
-    <hyperlink ref="N34" r:id="rId28" xr:uid="{50E45206-2D65-BC4C-99F3-FED3CC513E60}"/>
-    <hyperlink ref="N36" r:id="rId29" xr:uid="{24BB8F8B-EF32-6D42-93DC-32517BC00EC8}"/>
-    <hyperlink ref="N37" r:id="rId30" xr:uid="{27042F81-8CE5-1142-BEE7-E00D3D1A7CA6}"/>
-    <hyperlink ref="N38" r:id="rId31" xr:uid="{224056BE-E364-2145-9255-6B937A9362E5}"/>
-    <hyperlink ref="N39" r:id="rId32" xr:uid="{0DAC4F9F-AF1A-B347-AD6D-BCF873AA22AF}"/>
-    <hyperlink ref="N40" r:id="rId33" xr:uid="{EBF49091-39A2-AA4C-9FF8-BC20CD32201D}"/>
-    <hyperlink ref="N41" r:id="rId34" xr:uid="{3660A146-F37E-4C4E-BB59-73C5E36577BB}"/>
-    <hyperlink ref="N42" r:id="rId35" xr:uid="{61E0DC08-F92A-2741-824F-AC09A2514A14}"/>
-    <hyperlink ref="N43" r:id="rId36" xr:uid="{7E575B78-D403-8C45-8B12-7CCA4BFF9A95}"/>
-    <hyperlink ref="N44" r:id="rId37" xr:uid="{471B4D9A-C319-4D41-BE4C-9FAB148851CB}"/>
-    <hyperlink ref="N45" r:id="rId38" xr:uid="{94DC54E1-F408-C14E-A249-A4F0702E8EAF}"/>
-    <hyperlink ref="N46" r:id="rId39" xr:uid="{03EECAA3-D27E-674E-B589-9D904C3D717A}"/>
-    <hyperlink ref="N47" r:id="rId40" xr:uid="{E609C1A9-6072-864F-A311-CA1E27062BD9}"/>
-    <hyperlink ref="N48" r:id="rId41" xr:uid="{E6B6B43E-9328-9743-9E05-5AAE898E3878}"/>
-    <hyperlink ref="N49" r:id="rId42" xr:uid="{2DF13506-2AE5-8047-ADAA-55EE81CEABBC}"/>
-    <hyperlink ref="N50" r:id="rId43" xr:uid="{FAE7F629-C141-C14A-8079-7CC0051FC46B}"/>
-    <hyperlink ref="N51" r:id="rId44" xr:uid="{37E90C0C-F7FF-3B43-92B0-5F23BBB1846B}"/>
-    <hyperlink ref="N52" r:id="rId45" xr:uid="{C585C6A5-6F25-1D4A-BA91-99B355816B71}"/>
-    <hyperlink ref="N54" r:id="rId46" xr:uid="{716FB3CE-C93A-0D4E-83E2-1F832E38438A}"/>
-    <hyperlink ref="N55" r:id="rId47" xr:uid="{763F919B-2E8E-9645-A73C-7068631EA5BD}"/>
-    <hyperlink ref="N56" r:id="rId48" xr:uid="{A9F9BEE7-4794-DD46-B505-D18E2B83DB25}"/>
-    <hyperlink ref="N59" r:id="rId49" xr:uid="{458EC4F7-83EC-884C-BDE7-844A4BB1600E}"/>
-    <hyperlink ref="N60" r:id="rId50" xr:uid="{A6B87ACD-6206-E349-BEEA-A69D38FA26E1}"/>
-    <hyperlink ref="N63" r:id="rId51" xr:uid="{DACE4FFD-F67E-C142-885A-9E4F70B7D95C}"/>
-    <hyperlink ref="N61" r:id="rId52" xr:uid="{8F66B9FC-82A5-4A48-ACB2-7278283DAC52}"/>
-    <hyperlink ref="N62" r:id="rId53" xr:uid="{0E0354C1-95B6-6A4D-B580-56FB60B790B0}"/>
-    <hyperlink ref="N65" r:id="rId54" xr:uid="{7CAA05C8-E8B3-0A4D-8441-7EF0026636A9}"/>
-    <hyperlink ref="N66" r:id="rId55" xr:uid="{DF96D4AB-8635-5C47-998D-24F086C65FED}"/>
-    <hyperlink ref="N53" r:id="rId56" xr:uid="{0C4BEB02-6D9E-3D48-9467-9E0375B67354}"/>
-    <hyperlink ref="N67" r:id="rId57" xr:uid="{830F47DA-5999-1D49-BF1B-CA9F7E6E2634}"/>
-    <hyperlink ref="N9" r:id="rId58" xr:uid="{F863EC40-61D0-654A-98C4-C9110B127098}"/>
-    <hyperlink ref="N8" r:id="rId59" xr:uid="{F29B6258-9244-FD42-863C-8211510460DA}"/>
-    <hyperlink ref="N7" r:id="rId60" xr:uid="{B86E0112-C5C5-EF46-99BA-8EE98BE94CCA}"/>
-    <hyperlink ref="N6" r:id="rId61" xr:uid="{97F2553C-335C-FD4E-AB29-CA0723303A52}"/>
-    <hyperlink ref="N68" r:id="rId62" xr:uid="{8C3DB306-A0B8-4B4E-B0F3-7453F168E1E7}"/>
-    <hyperlink ref="N57" r:id="rId63" xr:uid="{D2537144-C244-8347-B1C4-863D57B3685A}"/>
-    <hyperlink ref="N16" r:id="rId64" xr:uid="{919B2F5B-9EDF-F842-B70A-2FE35DBE5944}"/>
+    <hyperlink ref="N22" r:id="rId16" xr:uid="{E85B73F8-7891-7143-B969-0B79DF26D081}"/>
+    <hyperlink ref="N23" r:id="rId17" xr:uid="{44CDC6C0-EE6B-B347-8735-C63D2C24040D}"/>
+    <hyperlink ref="N24" r:id="rId18" xr:uid="{A596F81C-9A3A-F74B-AC01-E5A03CA4BCC4}"/>
+    <hyperlink ref="N25" r:id="rId19" xr:uid="{FDF2E6CC-FB30-8040-B34A-D885D59D1160}"/>
+    <hyperlink ref="N26" r:id="rId20" xr:uid="{87B4DA1D-2EA7-054C-8B19-C4BE6F9B10A0}"/>
+    <hyperlink ref="N27" r:id="rId21" xr:uid="{E655B469-D0C1-D849-9BD7-1AE114B2C741}"/>
+    <hyperlink ref="N28" r:id="rId22" xr:uid="{5F79F766-E9E0-664F-919F-643E6704EC01}"/>
+    <hyperlink ref="N29" r:id="rId23" xr:uid="{465E577B-0B06-AB4F-BB85-CA56352BBFDE}"/>
+    <hyperlink ref="N30" r:id="rId24" xr:uid="{C1E31111-A2B4-FF4A-A8E3-DEB4725DADBA}"/>
+    <hyperlink ref="N31" r:id="rId25" xr:uid="{9217608B-9107-7D40-8260-DAD414EA0D15}"/>
+    <hyperlink ref="N32" r:id="rId26" xr:uid="{EB2ED179-4C37-7F42-BFF2-858EB3A7F462}"/>
+    <hyperlink ref="N33" r:id="rId27" xr:uid="{50E45206-2D65-BC4C-99F3-FED3CC513E60}"/>
+    <hyperlink ref="N35" r:id="rId28" xr:uid="{24BB8F8B-EF32-6D42-93DC-32517BC00EC8}"/>
+    <hyperlink ref="N36" r:id="rId29" xr:uid="{27042F81-8CE5-1142-BEE7-E00D3D1A7CA6}"/>
+    <hyperlink ref="N37" r:id="rId30" xr:uid="{224056BE-E364-2145-9255-6B937A9362E5}"/>
+    <hyperlink ref="N38" r:id="rId31" xr:uid="{0DAC4F9F-AF1A-B347-AD6D-BCF873AA22AF}"/>
+    <hyperlink ref="N39" r:id="rId32" xr:uid="{EBF49091-39A2-AA4C-9FF8-BC20CD32201D}"/>
+    <hyperlink ref="N40" r:id="rId33" xr:uid="{3660A146-F37E-4C4E-BB59-73C5E36577BB}"/>
+    <hyperlink ref="N41" r:id="rId34" xr:uid="{61E0DC08-F92A-2741-824F-AC09A2514A14}"/>
+    <hyperlink ref="N42" r:id="rId35" xr:uid="{7E575B78-D403-8C45-8B12-7CCA4BFF9A95}"/>
+    <hyperlink ref="N43" r:id="rId36" xr:uid="{471B4D9A-C319-4D41-BE4C-9FAB148851CB}"/>
+    <hyperlink ref="N44" r:id="rId37" xr:uid="{94DC54E1-F408-C14E-A249-A4F0702E8EAF}"/>
+    <hyperlink ref="N45" r:id="rId38" xr:uid="{03EECAA3-D27E-674E-B589-9D904C3D717A}"/>
+    <hyperlink ref="N46" r:id="rId39" xr:uid="{E609C1A9-6072-864F-A311-CA1E27062BD9}"/>
+    <hyperlink ref="N47" r:id="rId40" xr:uid="{E6B6B43E-9328-9743-9E05-5AAE898E3878}"/>
+    <hyperlink ref="N48" r:id="rId41" xr:uid="{2DF13506-2AE5-8047-ADAA-55EE81CEABBC}"/>
+    <hyperlink ref="N49" r:id="rId42" xr:uid="{FAE7F629-C141-C14A-8079-7CC0051FC46B}"/>
+    <hyperlink ref="N50" r:id="rId43" xr:uid="{37E90C0C-F7FF-3B43-92B0-5F23BBB1846B}"/>
+    <hyperlink ref="N51" r:id="rId44" xr:uid="{C585C6A5-6F25-1D4A-BA91-99B355816B71}"/>
+    <hyperlink ref="N53" r:id="rId45" xr:uid="{716FB3CE-C93A-0D4E-83E2-1F832E38438A}"/>
+    <hyperlink ref="N54" r:id="rId46" xr:uid="{763F919B-2E8E-9645-A73C-7068631EA5BD}"/>
+    <hyperlink ref="N55" r:id="rId47" xr:uid="{A9F9BEE7-4794-DD46-B505-D18E2B83DB25}"/>
+    <hyperlink ref="N58" r:id="rId48" xr:uid="{458EC4F7-83EC-884C-BDE7-844A4BB1600E}"/>
+    <hyperlink ref="N59" r:id="rId49" xr:uid="{A6B87ACD-6206-E349-BEEA-A69D38FA26E1}"/>
+    <hyperlink ref="N62" r:id="rId50" xr:uid="{DACE4FFD-F67E-C142-885A-9E4F70B7D95C}"/>
+    <hyperlink ref="N60" r:id="rId51" xr:uid="{8F66B9FC-82A5-4A48-ACB2-7278283DAC52}"/>
+    <hyperlink ref="N61" r:id="rId52" xr:uid="{0E0354C1-95B6-6A4D-B580-56FB60B790B0}"/>
+    <hyperlink ref="N64" r:id="rId53" xr:uid="{7CAA05C8-E8B3-0A4D-8441-7EF0026636A9}"/>
+    <hyperlink ref="N65" r:id="rId54" xr:uid="{DF96D4AB-8635-5C47-998D-24F086C65FED}"/>
+    <hyperlink ref="N52" r:id="rId55" xr:uid="{0C4BEB02-6D9E-3D48-9467-9E0375B67354}"/>
+    <hyperlink ref="N66" r:id="rId56" xr:uid="{830F47DA-5999-1D49-BF1B-CA9F7E6E2634}"/>
+    <hyperlink ref="N9" r:id="rId57" xr:uid="{F863EC40-61D0-654A-98C4-C9110B127098}"/>
+    <hyperlink ref="N8" r:id="rId58" xr:uid="{F29B6258-9244-FD42-863C-8211510460DA}"/>
+    <hyperlink ref="N7" r:id="rId59" xr:uid="{B86E0112-C5C5-EF46-99BA-8EE98BE94CCA}"/>
+    <hyperlink ref="N6" r:id="rId60" xr:uid="{97F2553C-335C-FD4E-AB29-CA0723303A52}"/>
+    <hyperlink ref="N67" r:id="rId61" xr:uid="{8C3DB306-A0B8-4B4E-B0F3-7453F168E1E7}"/>
+    <hyperlink ref="N56" r:id="rId62" xr:uid="{D2537144-C244-8347-B1C4-863D57B3685A}"/>
+    <hyperlink ref="N16" r:id="rId63" xr:uid="{D0DAB86A-D022-0D42-9D94-C674C38D4D51}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45DDFA8F-BDC4-4F49-B571-BE4F5B153E68}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>